--- a/academias/La Materia y sus Interacciones - Estadisticos 20242.xlsx
+++ b/academias/La Materia y sus Interacciones - Estadisticos 20242.xlsx
@@ -604,7 +604,7 @@
         <v>6.2</v>
       </c>
       <c r="I4" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>97.3</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>2.7</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1089,25 +1089,25 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1124,25 +1124,25 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>9.4</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="J4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1159,25 +1159,25 @@
         <v>49</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>4.1</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J5">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1194,25 +1194,25 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J6">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1229,25 +1229,25 @@
         <v>38</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>94.7</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>5.3</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1261,25 +1261,25 @@
         <v>234</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="F8">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>96.2</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J8">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1497,25 +1497,25 @@
         <v>362</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="F15">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>62.2</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>37.8</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="J15">
-        <v>362</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>35.4</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1598,7 @@
         <v>2.7</v>
       </c>
       <c r="I2" s="2">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1621,19 +1621,19 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>93.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="I4" s="2">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>4.1</v>
       </c>
       <c r="I5" s="2">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>2.6</v>
       </c>
       <c r="I6" s="2">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1761,19 +1761,19 @@
         <v>38</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>97.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="H7" s="1">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="I7" s="2">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1793,19 +1793,19 @@
         <v>234</v>
       </c>
       <c r="E8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>96.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="H8" s="1">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I8" s="2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2029,19 +2029,19 @@
         <v>362</v>
       </c>
       <c r="E15">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F15">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1">
-        <v>79.3</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="I15" s="2">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="J15">
         <v>0</v>

--- a/academias/La Materia y sus Interacciones - Estadisticos 20242.xlsx
+++ b/academias/La Materia y sus Interacciones - Estadisticos 20242.xlsx
@@ -1296,25 +1296,25 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1331,25 +1331,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>28.6</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1366,25 +1366,25 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>47.8</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1401,25 +1401,25 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1436,25 +1436,25 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>36.4</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1468,25 +1468,25 @@
         <v>128</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F14">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>60.2</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>39.8</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1497,25 +1497,25 @@
         <v>362</v>
       </c>
       <c r="E15">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="F15">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1">
-        <v>62.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>37.8</v>
+        <v>16.6</v>
       </c>
       <c r="I15" s="2">
-        <v>4.1</v>
+        <v>7.3</v>
       </c>
       <c r="J15">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>35.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1828,19 +1828,19 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>30.6</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1">
-        <v>69.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1863,19 +1863,19 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>60.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>39.3</v>
+        <v>28.6</v>
       </c>
       <c r="I10" s="2">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1">
-        <v>43.5</v>
+        <v>52.2</v>
       </c>
       <c r="H11" s="1">
-        <v>56.5</v>
+        <v>47.8</v>
       </c>
       <c r="I11" s="2">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1933,19 +1933,19 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="H12" s="1">
-        <v>46.7</v>
+        <v>33.3</v>
       </c>
       <c r="I12" s="2">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>36.4</v>
       </c>
       <c r="I13" s="2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2000,19 +2000,19 @@
         <v>128</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1">
-        <v>47.7</v>
+        <v>60.2</v>
       </c>
       <c r="H14" s="1">
-        <v>52.3</v>
+        <v>39.8</v>
       </c>
       <c r="I14" s="2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2029,19 +2029,19 @@
         <v>362</v>
       </c>
       <c r="E15">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F15">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1">
-        <v>79</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>21</v>
+        <v>16.6</v>
       </c>
       <c r="I15" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J15">
         <v>0</v>
